--- a/biology/Botanique/Liste_des_plantes_potagères_recommandées_dans_le_capitulaire_De_Villis/Liste_des_plantes_potagères_recommandées_dans_le_capitulaire_De_Villis.xlsx
+++ b/biology/Botanique/Liste_des_plantes_potagères_recommandées_dans_le_capitulaire_De_Villis/Liste_des_plantes_potagères_recommandées_dans_le_capitulaire_De_Villis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plantes_potag%C3%A8res_recommand%C3%A9es_dans_le_capitulaire_De_Villis</t>
+          <t>Liste_des_plantes_potagères_recommandées_dans_le_capitulaire_De_Villis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le capitulaire De Villis (De villis vel curtis imperialibus) daté de l'an 812 recommandait la culture d'un certain nombre de plantes potagères dans les jardins du domaine royal.
@@ -515,7 +527,7 @@
 eruca alba : roquette (Eruca sativa Mill., Brassicacées)
 fabas majores : fèves (Vicia faba L., Fabacées)
 fasiolum : mongette (Vigna unguiculata L., Fabacées)
-febrefugia : plante fébrifuge ? Selon Michel Botineau, il s'agirait de la camomille, peut-être la camomille allemande, sa deuxième hypothèse étant la camomille romaine[1].
+febrefugia : plante fébrifuge ? Selon Michel Botineau, il s'agirait de la camomille, peut-être la camomille allemande, sa deuxième hypothèse étant la camomille romaine.
 fenicolum : fenouil commun (Foeniculum vulgare Mill., Apiacées)
 fenigrecum : fenugrec (Trigonella fœnum-græcum, Fabacées)
 git : nigelle (Nigella sativa, Renonculacées)
